--- a/xlsx/全球研究_intext.xlsx
+++ b/xlsx/全球研究_intext.xlsx
@@ -29,7 +29,7 @@
     <t>全球化</t>
   </si>
   <si>
-    <t>政策_政策_政治學_全球研究</t>
+    <t>政策_政策_政治学_全球研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際研究</t>
+    <t>国际研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
